--- a/docs/diagramas/cronjobs/cct-cronjobs.xlsx
+++ b/docs/diagramas/cronjobs/cct-cronjobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\Projetos\SMTR - Prefeitura\Modelos e Templates\Processos do CronJob\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rapha\Local\Trabalho\Iplanrio-reserva\api-cct\docs\diagramas\cronjobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD8263-90C7-4163-8794-BA8011C7CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F104C-F219-4834-93E8-B71E25EDEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1935" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronJobs" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Atualizar Transações Empresa - DLake para CCT</t>
-  </si>
-  <si>
-    <t>Sincronizar Transações - DLake para CCT</t>
   </si>
   <si>
     <t>Atualizar Retorno - Leitura dos Arquivos Retorno do Banco CEF para CCT</t>
@@ -167,20 +164,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Atualizar Transações Van DLake para CCT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Abadi Extra Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(VAN -&gt; da Dt Atual retroceder 8d)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Atualizar Transações VLT - DLake para CCT </t>
     </r>
     <r>
@@ -215,6 +198,23 @@
         <family val="2"/>
       </rPr>
       <t>(TODOS -&gt; da Dt Atual retroceder 8d)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sincronizar Transações com Ordem Pgto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Atualizar Transações Vanzeiro DLake para CCT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Abadi Extra Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(VAN -&gt; da Dt Atual retroceder 8d)</t>
     </r>
   </si>
 </sst>
@@ -335,18 +335,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Abadi Extra Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Abadi Extra Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +383,12 @@
         <fgColor rgb="FF0070C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -412,19 +419,6 @@
       </left>
       <right style="thin">
         <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -619,11 +613,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,56 +655,59 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,16 +716,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -758,19 +770,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,8 +797,84 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,11 +942,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,11 +954,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,15 +982,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,7 +1002,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
@@ -922,11 +1010,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,19 +1022,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,11 +1042,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,7 +1058,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,7 +1066,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,11 +1090,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,27 +1102,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,7 +1130,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,19 +1150,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,7 +1174,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,11 +1182,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,7 +1198,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,11 +1206,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,19 +1218,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,11 +1246,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2366,13 +2454,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2433,13 +2521,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2500,13 +2588,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2567,13 +2655,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2634,13 +2722,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2701,13 +2789,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2768,13 +2856,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2835,13 +2923,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2902,1203 +2990,8 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1535" name="Check Box 511" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1535"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF050000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1536" name="Check Box 512" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1536"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1537" name="Check Box 513" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1537"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1538" name="Check Box 514" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1538"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1539" name="Check Box 515" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1539"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1540" name="Check Box 516" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1540"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1541" name="Check Box 517" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1541"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1542" name="Check Box 518" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1542"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1543" name="Check Box 519" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1543"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1544" name="Check Box 520" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1544"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1545" name="Check Box 521" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1545"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1546" name="Check Box 522" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1546"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1547" name="Check Box 523" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1547"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1548" name="Check Box 524" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1548"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1549" name="Check Box 525" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1549"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1550" name="Check Box 526" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1550"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1551" name="Check Box 527" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1551"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1552" name="Check Box 528" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1552"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010060000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
@@ -4108,13 +3001,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1553" name="Check Box 529" hidden="1">
+            <xdr:cNvPr id="1535" name="Check Box 511" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1553"/>
+                  <a14:compatExt spid="_x0000_s1535"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4175,13 +3068,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1554" name="Check Box 530" hidden="1">
+            <xdr:cNvPr id="1536" name="Check Box 512" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1554"/>
+                  <a14:compatExt spid="_x0000_s1536"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4242,13 +3135,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1555" name="Check Box 531" hidden="1">
+            <xdr:cNvPr id="1537" name="Check Box 513" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1555"/>
+                  <a14:compatExt spid="_x0000_s1537"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4309,13 +3202,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1556" name="Check Box 532" hidden="1">
+            <xdr:cNvPr id="1538" name="Check Box 514" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1556"/>
+                  <a14:compatExt spid="_x0000_s1538"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4376,13 +3269,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1557" name="Check Box 533" hidden="1">
+            <xdr:cNvPr id="1539" name="Check Box 515" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1557"/>
+                  <a14:compatExt spid="_x0000_s1539"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4443,13 +3336,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1558" name="Check Box 534" hidden="1">
+            <xdr:cNvPr id="1540" name="Check Box 516" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1558"/>
+                  <a14:compatExt spid="_x0000_s1540"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4499,24 +3392,24 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1559" name="Check Box 535" hidden="1">
+            <xdr:cNvPr id="1541" name="Check Box 517" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1559"/>
+                  <a14:compatExt spid="_x0000_s1541"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4538,15 +3431,16 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
                   <a:tailEnd/>
@@ -4577,13 +3471,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1560" name="Check Box 536" hidden="1">
+            <xdr:cNvPr id="1542" name="Check Box 518" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1560"/>
+                  <a14:compatExt spid="_x0000_s1542"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4644,13 +3538,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1561" name="Check Box 537" hidden="1">
+            <xdr:cNvPr id="1543" name="Check Box 519" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1561"/>
+                  <a14:compatExt spid="_x0000_s1543"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4711,13 +3605,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1562" name="Check Box 538" hidden="1">
+            <xdr:cNvPr id="1544" name="Check Box 520" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1562"/>
+                  <a14:compatExt spid="_x0000_s1544"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4778,13 +3672,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1563" name="Check Box 539" hidden="1">
+            <xdr:cNvPr id="1545" name="Check Box 521" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1563"/>
+                  <a14:compatExt spid="_x0000_s1545"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4845,13 +3739,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1564" name="Check Box 540" hidden="1">
+            <xdr:cNvPr id="1546" name="Check Box 522" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1564"/>
+                  <a14:compatExt spid="_x0000_s1546"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4912,13 +3806,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1565" name="Check Box 541" hidden="1">
+            <xdr:cNvPr id="1547" name="Check Box 523" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1565"/>
+                  <a14:compatExt spid="_x0000_s1547"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4979,13 +3873,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1566" name="Check Box 542" hidden="1">
+            <xdr:cNvPr id="1548" name="Check Box 524" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1566"/>
+                  <a14:compatExt spid="_x0000_s1548"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5046,13 +3940,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1567" name="Check Box 543" hidden="1">
+            <xdr:cNvPr id="1549" name="Check Box 525" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1567"/>
+                  <a14:compatExt spid="_x0000_s1549"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5113,13 +4007,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1568" name="Check Box 544" hidden="1">
+            <xdr:cNvPr id="1550" name="Check Box 526" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1568"/>
+                  <a14:compatExt spid="_x0000_s1550"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5180,13 +4074,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1569" name="Check Box 545" hidden="1">
+            <xdr:cNvPr id="1551" name="Check Box 527" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1569"/>
+                  <a14:compatExt spid="_x0000_s1551"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5247,13 +4141,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1570" name="Check Box 546" hidden="1">
+            <xdr:cNvPr id="1552" name="Check Box 528" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1570"/>
+                  <a14:compatExt spid="_x0000_s1552"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5314,13 +4208,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1571" name="Check Box 547" hidden="1">
+            <xdr:cNvPr id="1553" name="Check Box 529" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1571"/>
+                  <a14:compatExt spid="_x0000_s1553"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5370,8 +4264,8 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -5437,8 +4331,8 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -5504,8 +4398,8 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
@@ -5571,8 +4465,8 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -5669,18 +4563,30 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="99CC00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="50"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="39"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="99CC00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="50"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="39"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5725,18 +4631,30 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FF9900" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="52"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF9900" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="52"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5750,8 +4668,8 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
@@ -5817,8 +4735,8 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
@@ -5884,8 +4802,8 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
@@ -7456,18 +6374,30 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="99CC00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="50"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="39"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="99CC00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="50"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="39"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -8477,6 +7407,2444 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1638" name="Check Box 614" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1638"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1639" name="Check Box 615" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1639"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1640" name="Check Box 616" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1640"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1641" name="Check Box 617" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1641"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1642" name="Check Box 618" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1642"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1643" name="Check Box 619" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1643"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1644" name="Check Box 620" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1644"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1645" name="Check Box 621" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1645"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1646" name="Check Box 622" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1646"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1648" name="Check Box 624" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1648"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1649" name="Check Box 625" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1649"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1650" name="Check Box 626" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1650"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1651" name="Check Box 627" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1651"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1652" name="Check Box 628" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1652"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1653" name="Check Box 629" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1653"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1654" name="Check Box 630" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1654"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1655" name="Check Box 631" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1655"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1656" name="Check Box 632" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1656"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1657" name="Check Box 633" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1657"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1658" name="Check Box 634" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1658"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1659" name="Check Box 635" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1659"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1660" name="Check Box 636" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1660"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1661" name="Check Box 637" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1661"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1662" name="Check Box 638" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1662"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1663" name="Check Box 639" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1663"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1664" name="Check Box 640" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1664"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1665" name="Check Box 641" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1665"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081060000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1666" name="Check Box 642" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1666"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EF1817-080B-41CE-95B8-B7C95F55D8F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1667" name="Check Box 643" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1667"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC4BDB5-CF50-4237-B7F2-269A2046FEE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1668" name="Check Box 644" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1668"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1E5375-0C6D-4163-842E-0F1677E2AF9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1669" name="Check Box 645" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1669"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3641C77-BDF8-44DD-B248-AC3DCF3F7686}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1670" name="Check Box 646" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1670"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B135594F-960C-4A9D-A191-7391CB30DC41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1671" name="Check Box 647" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1671"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3260486F-BF0D-46BC-A4BB-19B20010D147}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1672" name="Check Box 648" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1672"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BE8AE5-D49F-457D-BF82-708D18299A3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1673" name="Check Box 649" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1673"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B27087-6700-4678-864D-BEAC3E143B99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1675" name="Check Box 651" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1675"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD2502E-49EB-4AA4-A8C7-11E9D8A23C63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1676" name="Check Box 652" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1676"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9589060D-6C79-4795-9A0B-1D0ADBF4EA4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -8687,7 +10055,7 @@
   <dimension ref="B1:U20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8704,11 +10072,11 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -8724,12 +10092,12 @@
       <c r="O2" s="33"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="31"/>
     </row>
     <row r="3" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8757,43 +10125,43 @@
         <v>13</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>27</v>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>22</v>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>17</v>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -8804,23 +10172,23 @@
       <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>25</v>
+      <c r="R4" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>41</v>
+      <c r="B5" s="16" t="s">
+        <v>43</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -8829,191 +10197,191 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>28</v>
+      <c r="R5" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>37</v>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="1">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M6" s="1">
-        <v>0.25069444444444444</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>23</v>
+      <c r="R6" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="27">
-        <v>0.41666666666666669</v>
+      <c r="C9" s="14"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="25">
+        <v>0.33333333333333331</v>
       </c>
-      <c r="M7" s="28">
-        <v>0.4375</v>
+      <c r="M9" s="26">
+        <v>0.35416666666666669</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3" t="s">
-        <v>39</v>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>20</v>
+    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>18</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="27">
-        <v>0.33333333333333331</v>
+      <c r="C10" s="14"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="25">
+        <v>0.41666666666666669</v>
       </c>
-      <c r="M8" s="28">
-        <v>0.35416666666666669</v>
+      <c r="M10" s="26">
+        <v>0.4375</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2" t="s">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>28</v>
+      <c r="R10" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>16</v>
+      <c r="B11" s="40" t="s">
+        <v>42</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="35"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="28">
+      <c r="N11" s="26">
         <v>0.35416666666666669</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <v>0.4375</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>24</v>
+      <c r="R11" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>40</v>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -9024,23 +10392,23 @@
       <c r="Q12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>23</v>
+      <c r="R12" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>43</v>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="1">
         <v>0.5</v>
       </c>
@@ -9051,84 +10419,75 @@
       <c r="Q13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>24</v>
+      <c r="R13" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>18</v>
+      <c r="B14" s="27" t="s">
+        <v>17</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="27">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="25">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="R14" s="17" t="s">
-        <v>33</v>
+      <c r="R14" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>0.79513888888888884</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="25" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="26" t="s">
-        <v>23</v>
+      <c r="R15" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="11"/>
-    </row>
     <row r="18" spans="7:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="7:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="7:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="U20" s="9" t="s">
-        <v>29</v>
+      <c r="U20" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9142,14 +10501,15 @@
     <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1317" r:id="rId3" name="Check Box 293">
+            <control shapeId="1317" r:id="rId4" name="Check Box 293">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9171,7 +10531,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1510" r:id="rId4" name="Check Box 486">
+            <control shapeId="1510" r:id="rId5" name="Check Box 486">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9193,7 +10553,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1511" r:id="rId5" name="Check Box 487">
+            <control shapeId="1511" r:id="rId6" name="Check Box 487">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9215,7 +10575,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1512" r:id="rId6" name="Check Box 488">
+            <control shapeId="1512" r:id="rId7" name="Check Box 488">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9237,7 +10597,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1513" r:id="rId7" name="Check Box 489">
+            <control shapeId="1513" r:id="rId8" name="Check Box 489">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9259,7 +10619,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1514" r:id="rId8" name="Check Box 490">
+            <control shapeId="1514" r:id="rId9" name="Check Box 490">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9281,7 +10641,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1515" r:id="rId9" name="Check Box 491">
+            <control shapeId="1515" r:id="rId10" name="Check Box 491">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9303,7 +10663,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1516" r:id="rId10" name="Check Box 492">
+            <control shapeId="1516" r:id="rId11" name="Check Box 492">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9325,7 +10685,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1518" r:id="rId11" name="Check Box 494">
+            <control shapeId="1518" r:id="rId12" name="Check Box 494">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9347,7 +10707,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1519" r:id="rId12" name="Check Box 495">
+            <control shapeId="1519" r:id="rId13" name="Check Box 495">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9369,7 +10729,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1520" r:id="rId13" name="Check Box 496">
+            <control shapeId="1520" r:id="rId14" name="Check Box 496">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9391,7 +10751,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1521" r:id="rId14" name="Check Box 497">
+            <control shapeId="1521" r:id="rId15" name="Check Box 497">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9413,7 +10773,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1522" r:id="rId15" name="Check Box 498">
+            <control shapeId="1522" r:id="rId16" name="Check Box 498">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9435,7 +10795,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1523" r:id="rId16" name="Check Box 499">
+            <control shapeId="1523" r:id="rId17" name="Check Box 499">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9457,7 +10817,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1524" r:id="rId17" name="Check Box 500">
+            <control shapeId="1524" r:id="rId18" name="Check Box 500">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9479,7 +10839,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1525" r:id="rId18" name="Check Box 501">
+            <control shapeId="1525" r:id="rId19" name="Check Box 501">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9501,7 +10861,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1526" r:id="rId19" name="Check Box 502">
+            <control shapeId="1526" r:id="rId20" name="Check Box 502">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9523,7 +10883,1943 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1527" r:id="rId20" name="Check Box 503">
+            <control shapeId="1527" r:id="rId21" name="Check Box 503">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1528" r:id="rId22" name="Check Box 504">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1529" r:id="rId23" name="Check Box 505">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1530" r:id="rId24" name="Check Box 506">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1531" r:id="rId25" name="Check Box 507">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1532" r:id="rId26" name="Check Box 508">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1533" r:id="rId27" name="Check Box 509">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1534" r:id="rId28" name="Check Box 510">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1535" r:id="rId29" name="Check Box 511">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1536" r:id="rId30" name="Check Box 512">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1537" r:id="rId31" name="Check Box 513">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1538" r:id="rId32" name="Check Box 514">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1539" r:id="rId33" name="Check Box 515">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1540" r:id="rId34" name="Check Box 516">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1541" r:id="rId35" name="Check Box 517">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1542" r:id="rId36" name="Check Box 518">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1543" r:id="rId37" name="Check Box 519">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1545" r:id="rId38" name="Check Box 521">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1546" r:id="rId39" name="Check Box 522">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1547" r:id="rId40" name="Check Box 523">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1548" r:id="rId41" name="Check Box 524">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1549" r:id="rId42" name="Check Box 525">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1550" r:id="rId43" name="Check Box 526">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1551" r:id="rId44" name="Check Box 527">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1552" r:id="rId45" name="Check Box 528">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1574" r:id="rId46" name="Check Box 550">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1575" r:id="rId47" name="Check Box 551">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1576" r:id="rId48" name="Check Box 552">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1579" r:id="rId49" name="Check Box 555">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1580" r:id="rId50" name="Check Box 556">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1581" r:id="rId51" name="Check Box 557">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1582" r:id="rId52" name="Check Box 558">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1583" r:id="rId53" name="Check Box 559">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1584" r:id="rId54" name="Check Box 560">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1585" r:id="rId55" name="Check Box 561">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1586" r:id="rId56" name="Check Box 562">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1587" r:id="rId57" name="Check Box 563">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1588" r:id="rId58" name="Check Box 564">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1589" r:id="rId59" name="Check Box 565">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1590" r:id="rId60" name="Check Box 566">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1591" r:id="rId61" name="Check Box 567">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1592" r:id="rId62" name="Check Box 568">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1593" r:id="rId63" name="Check Box 569">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1594" r:id="rId64" name="Check Box 570">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1595" r:id="rId65" name="Check Box 571">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1596" r:id="rId66" name="Check Box 572">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1597" r:id="rId67" name="Check Box 573">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1598" r:id="rId68" name="Check Box 574">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1599" r:id="rId69" name="Check Box 575">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1600" r:id="rId70" name="Check Box 576">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1601" r:id="rId71" name="Check Box 577">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1602" r:id="rId72" name="Check Box 578">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1603" r:id="rId73" name="Check Box 579">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1604" r:id="rId74" name="Check Box 580">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1605" r:id="rId75" name="Check Box 581">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1606" r:id="rId76" name="Check Box 582">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1607" r:id="rId77" name="Check Box 583">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1608" r:id="rId78" name="Check Box 584">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1609" r:id="rId79" name="Check Box 585">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1610" r:id="rId80" name="Check Box 586">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1611" r:id="rId81" name="Check Box 587">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1612" r:id="rId82" name="Check Box 588">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1613" r:id="rId83" name="Check Box 589">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1614" r:id="rId84" name="Check Box 590">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1615" r:id="rId85" name="Check Box 591">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1616" r:id="rId86" name="Check Box 592">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1618" r:id="rId87" name="Check Box 594">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>457200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1636" r:id="rId88" name="Check Box 612">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>457200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1578" r:id="rId89" name="Check Box 554">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1577" r:id="rId90" name="Check Box 553">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1638" r:id="rId91" name="Check Box 614">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1639" r:id="rId92" name="Check Box 615">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1640" r:id="rId93" name="Check Box 616">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1641" r:id="rId94" name="Check Box 617">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1642" r:id="rId95" name="Check Box 618">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1643" r:id="rId96" name="Check Box 619">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1644" r:id="rId97" name="Check Box 620">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1645" r:id="rId98" name="Check Box 621">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1646" r:id="rId99" name="Check Box 622">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1648" r:id="rId100" name="Check Box 624">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1649" r:id="rId101" name="Check Box 625">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1650" r:id="rId102" name="Check Box 626">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1651" r:id="rId103" name="Check Box 627">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1652" r:id="rId104" name="Check Box 628">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1653" r:id="rId105" name="Check Box 629">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1654" r:id="rId106" name="Check Box 630">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1655" r:id="rId107" name="Check Box 631">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1656" r:id="rId108" name="Check Box 632">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1657" r:id="rId109" name="Check Box 633">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9545,7 +12841,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1528" r:id="rId21" name="Check Box 504">
+            <control shapeId="1658" r:id="rId110" name="Check Box 634">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9567,7 +12863,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1529" r:id="rId22" name="Check Box 505">
+            <control shapeId="1659" r:id="rId111" name="Check Box 635">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9589,7 +12885,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1530" r:id="rId23" name="Check Box 506">
+            <control shapeId="1660" r:id="rId112" name="Check Box 636">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9611,7 +12907,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1531" r:id="rId24" name="Check Box 507">
+            <control shapeId="1661" r:id="rId113" name="Check Box 637">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9633,7 +12929,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1532" r:id="rId25" name="Check Box 508">
+            <control shapeId="1662" r:id="rId114" name="Check Box 638">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9655,7 +12951,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1533" r:id="rId26" name="Check Box 509">
+            <control shapeId="1663" r:id="rId115" name="Check Box 639">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9677,7 +12973,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1534" r:id="rId27" name="Check Box 510">
+            <control shapeId="1664" r:id="rId116" name="Check Box 640">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9699,7 +12995,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1535" r:id="rId28" name="Check Box 511">
+            <control shapeId="1665" r:id="rId117" name="Check Box 641">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9721,410 +13017,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1536" r:id="rId29" name="Check Box 512">
+            <control shapeId="1666" r:id="rId118" name="Check Box 642">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1537" r:id="rId30" name="Check Box 513">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1538" r:id="rId31" name="Check Box 514">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1539" r:id="rId32" name="Check Box 515">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1540" r:id="rId33" name="Check Box 516">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1541" r:id="rId34" name="Check Box 517">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1542" r:id="rId35" name="Check Box 518">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1543" r:id="rId36" name="Check Box 519">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1544" r:id="rId37" name="Check Box 520">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1545" r:id="rId38" name="Check Box 521">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1546" r:id="rId39" name="Check Box 522">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1547" r:id="rId40" name="Check Box 523">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1548" r:id="rId41" name="Check Box 524">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1549" r:id="rId42" name="Check Box 525">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1550" r:id="rId43" name="Check Box 526">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1551" r:id="rId44" name="Check Box 527">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1552" r:id="rId45" name="Check Box 528">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1553" r:id="rId46" name="Check Box 529">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1554" r:id="rId47" name="Check Box 530">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10139,14 +13039,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1555" r:id="rId48" name="Check Box 531">
+            <control shapeId="1667" r:id="rId119" name="Check Box 643">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
@@ -10161,14 +13061,36 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1556" r:id="rId49" name="Check Box 532">
+            <control shapeId="1668" r:id="rId120" name="Check Box 644">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1669" r:id="rId121" name="Check Box 645">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
@@ -10183,14 +13105,36 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1557" r:id="rId50" name="Check Box 533">
+            <control shapeId="1670" r:id="rId122" name="Check Box 646">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1671" r:id="rId123" name="Check Box 647">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -10205,14 +13149,36 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1558" r:id="rId51" name="Check Box 534">
+            <control shapeId="1672" r:id="rId124" name="Check Box 648">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1673" r:id="rId125" name="Check Box 649">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
@@ -10227,19 +13193,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1559" r:id="rId52" name="Check Box 535">
+            <control shapeId="1572" r:id="rId126" name="Check Box 548">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10249,19 +13215,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1560" r:id="rId53" name="Check Box 536">
+            <control shapeId="1573" r:id="rId127" name="Check Box 549">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10271,19 +13237,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1561" r:id="rId54" name="Check Box 537">
+            <control shapeId="1553" r:id="rId128" name="Check Box 529">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10293,7 +13259,29 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1562" r:id="rId55" name="Check Box 538">
+            <control shapeId="1675" r:id="rId129" name="Check Box 651">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>323850</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1544" r:id="rId130" name="Check Box 520">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10315,1229 +13303,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1563" r:id="rId56" name="Check Box 539">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1564" r:id="rId57" name="Check Box 540">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1565" r:id="rId58" name="Check Box 541">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1566" r:id="rId59" name="Check Box 542">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1567" r:id="rId60" name="Check Box 543">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1568" r:id="rId61" name="Check Box 544">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1569" r:id="rId62" name="Check Box 545">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1570" r:id="rId63" name="Check Box 546">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1571" r:id="rId64" name="Check Box 547">
+            <control shapeId="1676" r:id="rId131" name="Check Box 652">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1572" r:id="rId65" name="Check Box 548">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1573" r:id="rId66" name="Check Box 549">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1574" r:id="rId67" name="Check Box 550">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1575" r:id="rId68" name="Check Box 551">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1576" r:id="rId69" name="Check Box 552">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1577" r:id="rId70" name="Check Box 553">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1578" r:id="rId71" name="Check Box 554">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1579" r:id="rId72" name="Check Box 555">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1580" r:id="rId73" name="Check Box 556">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1581" r:id="rId74" name="Check Box 557">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1582" r:id="rId75" name="Check Box 558">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1583" r:id="rId76" name="Check Box 559">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1584" r:id="rId77" name="Check Box 560">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1585" r:id="rId78" name="Check Box 561">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1586" r:id="rId79" name="Check Box 562">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1587" r:id="rId80" name="Check Box 563">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1588" r:id="rId81" name="Check Box 564">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1589" r:id="rId82" name="Check Box 565">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1590" r:id="rId83" name="Check Box 566">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1591" r:id="rId84" name="Check Box 567">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1592" r:id="rId85" name="Check Box 568">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1593" r:id="rId86" name="Check Box 569">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1594" r:id="rId87" name="Check Box 570">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1595" r:id="rId88" name="Check Box 571">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1596" r:id="rId89" name="Check Box 572">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1597" r:id="rId90" name="Check Box 573">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1598" r:id="rId91" name="Check Box 574">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1599" r:id="rId92" name="Check Box 575">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1600" r:id="rId93" name="Check Box 576">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1601" r:id="rId94" name="Check Box 577">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1602" r:id="rId95" name="Check Box 578">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1603" r:id="rId96" name="Check Box 579">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1604" r:id="rId97" name="Check Box 580">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1605" r:id="rId98" name="Check Box 581">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1606" r:id="rId99" name="Check Box 582">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1607" r:id="rId100" name="Check Box 583">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1608" r:id="rId101" name="Check Box 584">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1609" r:id="rId102" name="Check Box 585">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1610" r:id="rId103" name="Check Box 586">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1611" r:id="rId104" name="Check Box 587">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1612" r:id="rId105" name="Check Box 588">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1613" r:id="rId106" name="Check Box 589">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1614" r:id="rId107" name="Check Box 590">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1615" r:id="rId108" name="Check Box 591">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1616" r:id="rId109" name="Check Box 592">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1618" r:id="rId110" name="Check Box 594">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>457200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1636" r:id="rId111" name="Check Box 612">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>457200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
